--- a/Ghantt.xlsx
+++ b/Ghantt.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jorge\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UVG\D&amp;I\Proyecto-Rostro-Animatronico\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5BDC31E-2725-4351-9539-DBA9BC117EC6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{50D00DC3-00F0-4CBA-BFB0-A236536E9D87}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -528,8 +528,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:AR19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -764,10 +764,10 @@
         <v>4</v>
       </c>
       <c r="C5" s="2">
-        <v>44263</v>
+        <v>44298</v>
       </c>
       <c r="D5" s="2">
-        <v>44269</v>
+        <v>44304</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
@@ -815,10 +815,10 @@
         <v>16</v>
       </c>
       <c r="C6" s="2">
-        <v>44270</v>
+        <v>44305</v>
       </c>
       <c r="D6" s="2">
-        <v>44290</v>
+        <v>44325</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
@@ -866,10 +866,10 @@
         <v>15</v>
       </c>
       <c r="C7" s="2">
-        <v>44284</v>
+        <v>44319</v>
       </c>
       <c r="D7" s="2">
-        <v>44297</v>
+        <v>44332</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
@@ -917,10 +917,10 @@
         <v>5</v>
       </c>
       <c r="C8" s="2">
-        <v>44298</v>
+        <v>44333</v>
       </c>
       <c r="D8" s="2">
-        <v>44304</v>
+        <v>44339</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
@@ -968,10 +968,10 @@
         <v>6</v>
       </c>
       <c r="C9" s="2">
-        <v>44304</v>
+        <v>44340</v>
       </c>
       <c r="D9" s="2">
-        <v>44318</v>
+        <v>44353</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
@@ -1019,10 +1019,10 @@
         <v>7</v>
       </c>
       <c r="C10" s="2">
-        <v>44319</v>
+        <v>44354</v>
       </c>
       <c r="D10" s="2">
-        <v>44325</v>
+        <v>44360</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
@@ -1070,10 +1070,10 @@
         <v>8</v>
       </c>
       <c r="C11" s="2">
-        <v>44326</v>
+        <v>44361</v>
       </c>
       <c r="D11" s="2">
-        <v>44339</v>
+        <v>44374</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
@@ -1121,10 +1121,10 @@
         <v>9</v>
       </c>
       <c r="C12" s="2">
-        <v>44340</v>
+        <v>44375</v>
       </c>
       <c r="D12" s="2">
-        <v>44367</v>
+        <v>44402</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
@@ -1172,10 +1172,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="2">
-        <v>44368</v>
+        <v>44403</v>
       </c>
       <c r="D13" s="2">
-        <v>44395</v>
+        <v>44423</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
@@ -1223,10 +1223,10 @@
         <v>11</v>
       </c>
       <c r="C14" s="2">
-        <v>44396</v>
+        <v>44424</v>
       </c>
       <c r="D14" s="2">
-        <v>44423</v>
+        <v>44451</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
@@ -1274,10 +1274,10 @@
         <v>12</v>
       </c>
       <c r="C15" s="2">
-        <v>44424</v>
+        <v>44452</v>
       </c>
       <c r="D15" s="2">
-        <v>44437</v>
+        <v>44472</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
@@ -1325,10 +1325,10 @@
         <v>13</v>
       </c>
       <c r="C16" s="2">
-        <v>44438</v>
+        <v>44473</v>
       </c>
       <c r="D16" s="2">
-        <v>44451</v>
+        <v>44486</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
@@ -1376,10 +1376,10 @@
         <v>14</v>
       </c>
       <c r="C17" s="2">
-        <v>44452</v>
+        <v>44487</v>
       </c>
       <c r="D17" s="2">
-        <v>44472</v>
+        <v>44507</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>

--- a/Ghantt.xlsx
+++ b/Ghantt.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UVG\D&amp;I\Proyecto-Rostro-Animatronico\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{50D00DC3-00F0-4CBA-BFB0-A236536E9D87}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24898E74-2CDF-4B98-80E5-EBC170001835}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>N° Actividad</t>
   </si>
@@ -45,24 +45,9 @@
     <t>Final</t>
   </si>
   <si>
-    <t>Avanzar en protocolo</t>
-  </si>
-  <si>
     <t>Verificar el actual funcionamiento del proyecto</t>
   </si>
   <si>
-    <t>Descargar e instalar opencv *</t>
-  </si>
-  <si>
-    <t>Investigar acerca del uso de opencv *</t>
-  </si>
-  <si>
-    <t>Descargar e instalar keras *</t>
-  </si>
-  <si>
-    <t>Investigar acerca del uso de keras *</t>
-  </si>
-  <si>
     <t>Realizar el modelo para machine learning</t>
   </si>
   <si>
@@ -87,7 +72,46 @@
     <t>Rediseñar, mejorar y/o arreglar el proyecto actual</t>
   </si>
   <si>
-    <t>Tesis</t>
+    <t>Realizar pruebas con opencv</t>
+  </si>
+  <si>
+    <t>Realizar pruebas con keras</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Descargar e instalar keras </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Descargar e instalar opencv </t>
+  </si>
+  <si>
+    <t>Avanzar en protocolo (objetivos, marco teórico: 7 emociones básicas)</t>
+  </si>
+  <si>
+    <t>Avanzar en protocolo (marco teórico: Las señales faciales de las emociones, como reconocer las emociones en los demás)</t>
+  </si>
+  <si>
+    <t>Avanzar en protocolo (Metodología, Marco teórico: Visión por computadora, Aprendizaje automático)</t>
+  </si>
+  <si>
+    <t>Avanzar en protocolo (Antecedentes, Justificación, Resumen, Índice preliminar)</t>
+  </si>
+  <si>
+    <t>Avanzar en Tesis (Antecendentes, Justificación, Objetivos, Marco teórico)</t>
+  </si>
+  <si>
+    <t>Avanzar en Tesis (Alcance, rediseño mecánico, diseño de software:opencv y keras)</t>
+  </si>
+  <si>
+    <t>Avanzar en Tesis (Revisión hasta el momento de los avances, empezar conclusiones y recomendaciones)</t>
+  </si>
+  <si>
+    <t>Avanzar en Tesis (Diseño de software y hardware: respuesta del rostro)</t>
+  </si>
+  <si>
+    <t>Avanzar en Tesis (Diseño de Software: Interfaz gráfica)</t>
+  </si>
+  <si>
+    <t>Avanzar en Tesis (Corregir y agregar informacion en secciones anteriores, terminar conclusiones y recomendaciones, resumen, abstract y resultados finales)</t>
   </si>
 </sst>
 </file>
@@ -189,7 +213,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -526,16 +550,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B3:AR19"/>
+  <dimension ref="B3:AR27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:AR26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="80.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="44" width="4.7109375" customWidth="1"/>
+    <col min="4" max="4" width="9.28515625" customWidth="1"/>
+    <col min="5" max="7" width="3.7109375" hidden="1" customWidth="1"/>
+    <col min="8" max="44" width="3.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:44" ht="48" customHeight="1" x14ac:dyDescent="0.25">
@@ -709,14 +735,14 @@
       </c>
     </row>
     <row r="4" spans="2:44" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="7" t="s">
-        <v>3</v>
+      <c r="B4" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="C4" s="2">
         <v>44256</v>
       </c>
       <c r="D4" s="2">
-        <v>44354</v>
+        <v>44304</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
@@ -760,8 +786,8 @@
       <c r="AR4" s="2"/>
     </row>
     <row r="5" spans="2:44" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="7" t="s">
-        <v>4</v>
+      <c r="B5" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="C5" s="2">
         <v>44298</v>
@@ -812,13 +838,13 @@
     </row>
     <row r="6" spans="2:44" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C6" s="2">
-        <v>44305</v>
+        <v>44298</v>
       </c>
       <c r="D6" s="2">
-        <v>44325</v>
+        <v>44311</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
@@ -862,14 +888,14 @@
       <c r="AR6" s="2"/>
     </row>
     <row r="7" spans="2:44" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="7" t="s">
-        <v>15</v>
+      <c r="B7" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="C7" s="2">
-        <v>44319</v>
+        <v>44305</v>
       </c>
       <c r="D7" s="2">
-        <v>44332</v>
+        <v>44325</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
@@ -913,14 +939,14 @@
       <c r="AR7" s="2"/>
     </row>
     <row r="8" spans="2:44" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="7" t="s">
-        <v>5</v>
+      <c r="B8" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="C8" s="2">
-        <v>44333</v>
+        <v>44319</v>
       </c>
       <c r="D8" s="2">
-        <v>44339</v>
+        <v>44332</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
@@ -964,14 +990,14 @@
       <c r="AR8" s="2"/>
     </row>
     <row r="9" spans="2:44" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="7" t="s">
-        <v>6</v>
+      <c r="B9" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="C9" s="2">
-        <v>44340</v>
+        <v>44332</v>
       </c>
       <c r="D9" s="2">
-        <v>44353</v>
+        <v>44339</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
@@ -1015,14 +1041,14 @@
       <c r="AR9" s="2"/>
     </row>
     <row r="10" spans="2:44" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="7" t="s">
-        <v>7</v>
+      <c r="B10" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="C10" s="2">
-        <v>44354</v>
+        <v>44333</v>
       </c>
       <c r="D10" s="2">
-        <v>44360</v>
+        <v>44339</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
@@ -1066,14 +1092,14 @@
       <c r="AR10" s="2"/>
     </row>
     <row r="11" spans="2:44" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="7" t="s">
-        <v>8</v>
+      <c r="B11" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="C11" s="2">
-        <v>44361</v>
+        <v>44333</v>
       </c>
       <c r="D11" s="2">
-        <v>44374</v>
+        <v>44346</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
@@ -1117,14 +1143,14 @@
       <c r="AR11" s="2"/>
     </row>
     <row r="12" spans="2:44" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="7" t="s">
-        <v>9</v>
+      <c r="B12" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="C12" s="2">
-        <v>44375</v>
+        <v>44340</v>
       </c>
       <c r="D12" s="2">
-        <v>44402</v>
+        <v>44353</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
@@ -1168,14 +1194,14 @@
       <c r="AR12" s="2"/>
     </row>
     <row r="13" spans="2:44" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="7" t="s">
-        <v>10</v>
+      <c r="B13" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="C13" s="2">
-        <v>44403</v>
+        <v>44354</v>
       </c>
       <c r="D13" s="2">
-        <v>44423</v>
+        <v>44360</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
@@ -1219,14 +1245,14 @@
       <c r="AR13" s="2"/>
     </row>
     <row r="14" spans="2:44" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="7" t="s">
-        <v>11</v>
+      <c r="B14" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="C14" s="2">
-        <v>44424</v>
+        <v>44361</v>
       </c>
       <c r="D14" s="2">
-        <v>44451</v>
+        <v>44374</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
@@ -1270,14 +1296,14 @@
       <c r="AR14" s="2"/>
     </row>
     <row r="15" spans="2:44" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="7" t="s">
-        <v>12</v>
+      <c r="B15" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="C15" s="2">
-        <v>44452</v>
+        <v>44375</v>
       </c>
       <c r="D15" s="2">
-        <v>44472</v>
+        <v>44402</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
@@ -1321,14 +1347,14 @@
       <c r="AR15" s="2"/>
     </row>
     <row r="16" spans="2:44" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="7" t="s">
-        <v>13</v>
+      <c r="B16" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="C16" s="2">
-        <v>44473</v>
+        <v>44382</v>
       </c>
       <c r="D16" s="2">
-        <v>44486</v>
+        <v>44409</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
@@ -1372,14 +1398,14 @@
       <c r="AR16" s="2"/>
     </row>
     <row r="17" spans="2:44" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="7" t="s">
-        <v>14</v>
+      <c r="B17" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="C17" s="2">
-        <v>44487</v>
+        <v>44403</v>
       </c>
       <c r="D17" s="2">
-        <v>44507</v>
+        <v>44423</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
@@ -1424,13 +1450,13 @@
     </row>
     <row r="18" spans="2:44" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C18" s="2">
-        <v>44382</v>
+        <v>44410</v>
       </c>
       <c r="D18" s="2">
-        <v>44529</v>
+        <v>44430</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
@@ -1473,28 +1499,436 @@
       <c r="AQ18" s="2"/>
       <c r="AR18" s="2"/>
     </row>
-    <row r="19" spans="2:44" x14ac:dyDescent="0.25">
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="6"/>
+    <row r="19" spans="2:44" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="2">
+        <v>44424</v>
+      </c>
+      <c r="D19" s="2">
+        <v>44451</v>
+      </c>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="2"/>
+      <c r="Q19" s="2"/>
+      <c r="R19" s="2"/>
+      <c r="S19" s="2"/>
+      <c r="T19" s="2"/>
+      <c r="U19" s="2"/>
+      <c r="V19" s="2"/>
+      <c r="W19" s="2"/>
+      <c r="X19" s="2"/>
+      <c r="Y19" s="2"/>
+      <c r="Z19" s="2"/>
+      <c r="AA19" s="2"/>
+      <c r="AB19" s="2"/>
+      <c r="AC19" s="2"/>
+      <c r="AD19" s="2"/>
+      <c r="AE19" s="2"/>
+      <c r="AF19" s="2"/>
+      <c r="AG19" s="2"/>
+      <c r="AH19" s="2"/>
+      <c r="AI19" s="2"/>
+      <c r="AJ19" s="2"/>
+      <c r="AK19" s="2"/>
+      <c r="AL19" s="2"/>
+      <c r="AM19" s="2"/>
+      <c r="AN19" s="2"/>
+      <c r="AO19" s="2"/>
+      <c r="AP19" s="2"/>
+      <c r="AQ19" s="2"/>
+      <c r="AR19" s="2"/>
+    </row>
+    <row r="20" spans="2:44" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" s="2">
+        <v>44431</v>
+      </c>
+      <c r="D20" s="2">
+        <v>44458</v>
+      </c>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="2"/>
+      <c r="Q20" s="2"/>
+      <c r="R20" s="2"/>
+      <c r="S20" s="2"/>
+      <c r="T20" s="2"/>
+      <c r="U20" s="2"/>
+      <c r="V20" s="2"/>
+      <c r="W20" s="2"/>
+      <c r="X20" s="2"/>
+      <c r="Y20" s="2"/>
+      <c r="Z20" s="2"/>
+      <c r="AA20" s="2"/>
+      <c r="AB20" s="2"/>
+      <c r="AC20" s="2"/>
+      <c r="AD20" s="2"/>
+      <c r="AE20" s="2"/>
+      <c r="AF20" s="2"/>
+      <c r="AG20" s="2"/>
+      <c r="AH20" s="2"/>
+      <c r="AI20" s="2"/>
+      <c r="AJ20" s="2"/>
+      <c r="AK20" s="2"/>
+      <c r="AL20" s="2"/>
+      <c r="AM20" s="2"/>
+      <c r="AN20" s="2"/>
+      <c r="AO20" s="2"/>
+      <c r="AP20" s="2"/>
+      <c r="AQ20" s="2"/>
+      <c r="AR20" s="2"/>
+    </row>
+    <row r="21" spans="2:44" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" s="2">
+        <v>44452</v>
+      </c>
+      <c r="D21" s="2">
+        <v>44472</v>
+      </c>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+      <c r="P21" s="2"/>
+      <c r="Q21" s="2"/>
+      <c r="R21" s="2"/>
+      <c r="S21" s="2"/>
+      <c r="T21" s="2"/>
+      <c r="U21" s="2"/>
+      <c r="V21" s="2"/>
+      <c r="W21" s="2"/>
+      <c r="X21" s="2"/>
+      <c r="Y21" s="2"/>
+      <c r="Z21" s="2"/>
+      <c r="AA21" s="2"/>
+      <c r="AB21" s="2"/>
+      <c r="AC21" s="2"/>
+      <c r="AD21" s="2"/>
+      <c r="AE21" s="2"/>
+      <c r="AF21" s="2"/>
+      <c r="AG21" s="2"/>
+      <c r="AH21" s="2"/>
+      <c r="AI21" s="2"/>
+      <c r="AJ21" s="2"/>
+      <c r="AK21" s="2"/>
+      <c r="AL21" s="2"/>
+      <c r="AM21" s="2"/>
+      <c r="AN21" s="2"/>
+      <c r="AO21" s="2"/>
+      <c r="AP21" s="2"/>
+      <c r="AQ21" s="2"/>
+      <c r="AR21" s="2"/>
+    </row>
+    <row r="22" spans="2:44" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" s="2">
+        <v>44459</v>
+      </c>
+      <c r="D22" s="2">
+        <v>44479</v>
+      </c>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
+      <c r="P22" s="2"/>
+      <c r="Q22" s="2"/>
+      <c r="R22" s="2"/>
+      <c r="S22" s="2"/>
+      <c r="T22" s="2"/>
+      <c r="U22" s="2"/>
+      <c r="V22" s="2"/>
+      <c r="W22" s="2"/>
+      <c r="X22" s="2"/>
+      <c r="Y22" s="2"/>
+      <c r="Z22" s="2"/>
+      <c r="AA22" s="2"/>
+      <c r="AB22" s="2"/>
+      <c r="AC22" s="2"/>
+      <c r="AD22" s="2"/>
+      <c r="AE22" s="2"/>
+      <c r="AF22" s="2"/>
+      <c r="AG22" s="2"/>
+      <c r="AH22" s="2"/>
+      <c r="AI22" s="2"/>
+      <c r="AJ22" s="2"/>
+      <c r="AK22" s="2"/>
+      <c r="AL22" s="2"/>
+      <c r="AM22" s="2"/>
+      <c r="AN22" s="2"/>
+      <c r="AO22" s="2"/>
+      <c r="AP22" s="2"/>
+      <c r="AQ22" s="2"/>
+      <c r="AR22" s="2"/>
+    </row>
+    <row r="23" spans="2:44" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" s="2">
+        <v>44473</v>
+      </c>
+      <c r="D23" s="2">
+        <v>44486</v>
+      </c>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
+      <c r="P23" s="2"/>
+      <c r="Q23" s="2"/>
+      <c r="R23" s="2"/>
+      <c r="S23" s="2"/>
+      <c r="T23" s="2"/>
+      <c r="U23" s="2"/>
+      <c r="V23" s="2"/>
+      <c r="W23" s="2"/>
+      <c r="X23" s="2"/>
+      <c r="Y23" s="2"/>
+      <c r="Z23" s="2"/>
+      <c r="AA23" s="2"/>
+      <c r="AB23" s="2"/>
+      <c r="AC23" s="2"/>
+      <c r="AD23" s="2"/>
+      <c r="AE23" s="2"/>
+      <c r="AF23" s="2"/>
+      <c r="AG23" s="2"/>
+      <c r="AH23" s="2"/>
+      <c r="AI23" s="2"/>
+      <c r="AJ23" s="2"/>
+      <c r="AK23" s="2"/>
+      <c r="AL23" s="2"/>
+      <c r="AM23" s="2"/>
+      <c r="AN23" s="2"/>
+      <c r="AO23" s="2"/>
+      <c r="AP23" s="2"/>
+      <c r="AQ23" s="2"/>
+      <c r="AR23" s="2"/>
+    </row>
+    <row r="24" spans="2:44" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" s="2">
+        <v>44480</v>
+      </c>
+      <c r="D24" s="2">
+        <v>44493</v>
+      </c>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2"/>
+      <c r="P24" s="2"/>
+      <c r="Q24" s="2"/>
+      <c r="R24" s="2"/>
+      <c r="S24" s="2"/>
+      <c r="T24" s="2"/>
+      <c r="U24" s="2"/>
+      <c r="V24" s="2"/>
+      <c r="W24" s="2"/>
+      <c r="X24" s="2"/>
+      <c r="Y24" s="2"/>
+      <c r="Z24" s="2"/>
+      <c r="AA24" s="2"/>
+      <c r="AB24" s="2"/>
+      <c r="AC24" s="2"/>
+      <c r="AD24" s="2"/>
+      <c r="AE24" s="2"/>
+      <c r="AF24" s="2"/>
+      <c r="AG24" s="2"/>
+      <c r="AH24" s="2"/>
+      <c r="AI24" s="2"/>
+      <c r="AJ24" s="2"/>
+      <c r="AK24" s="2"/>
+      <c r="AL24" s="2"/>
+      <c r="AM24" s="2"/>
+      <c r="AN24" s="2"/>
+      <c r="AO24" s="2"/>
+      <c r="AP24" s="2"/>
+      <c r="AQ24" s="2"/>
+      <c r="AR24" s="2"/>
+    </row>
+    <row r="25" spans="2:44" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" s="2">
+        <v>44487</v>
+      </c>
+      <c r="D25" s="2">
+        <v>44507</v>
+      </c>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2"/>
+      <c r="P25" s="2"/>
+      <c r="Q25" s="2"/>
+      <c r="R25" s="2"/>
+      <c r="S25" s="2"/>
+      <c r="T25" s="2"/>
+      <c r="U25" s="2"/>
+      <c r="V25" s="2"/>
+      <c r="W25" s="2"/>
+      <c r="X25" s="2"/>
+      <c r="Y25" s="2"/>
+      <c r="Z25" s="2"/>
+      <c r="AA25" s="2"/>
+      <c r="AB25" s="2"/>
+      <c r="AC25" s="2"/>
+      <c r="AD25" s="2"/>
+      <c r="AE25" s="2"/>
+      <c r="AF25" s="2"/>
+      <c r="AG25" s="2"/>
+      <c r="AH25" s="2"/>
+      <c r="AI25" s="2"/>
+      <c r="AJ25" s="2"/>
+      <c r="AK25" s="2"/>
+      <c r="AL25" s="2"/>
+      <c r="AM25" s="2"/>
+      <c r="AN25" s="2"/>
+      <c r="AO25" s="2"/>
+      <c r="AP25" s="2"/>
+      <c r="AQ25" s="2"/>
+      <c r="AR25" s="2"/>
+    </row>
+    <row r="26" spans="2:44" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" s="2">
+        <v>44494</v>
+      </c>
+      <c r="D26" s="2">
+        <v>44529</v>
+      </c>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2"/>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
+      <c r="O26" s="2"/>
+      <c r="P26" s="2"/>
+      <c r="Q26" s="2"/>
+      <c r="R26" s="2"/>
+      <c r="S26" s="2"/>
+      <c r="T26" s="2"/>
+      <c r="U26" s="2"/>
+      <c r="V26" s="2"/>
+      <c r="W26" s="2"/>
+      <c r="X26" s="2"/>
+      <c r="Y26" s="2"/>
+      <c r="Z26" s="2"/>
+      <c r="AA26" s="2"/>
+      <c r="AB26" s="2"/>
+      <c r="AC26" s="2"/>
+      <c r="AD26" s="2"/>
+      <c r="AE26" s="2"/>
+      <c r="AF26" s="2"/>
+      <c r="AG26" s="2"/>
+      <c r="AH26" s="2"/>
+      <c r="AI26" s="2"/>
+      <c r="AJ26" s="2"/>
+      <c r="AK26" s="2"/>
+      <c r="AL26" s="2"/>
+      <c r="AM26" s="2"/>
+      <c r="AN26" s="2"/>
+      <c r="AO26" s="2"/>
+      <c r="AP26" s="2"/>
+      <c r="AQ26" s="2"/>
+      <c r="AR26" s="2"/>
+    </row>
+    <row r="27" spans="2:44" x14ac:dyDescent="0.25">
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="6"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="E4:AL12 E13:AR18">
+  <conditionalFormatting sqref="E4:AL16 E17:AR26">
     <cfRule type="expression" dxfId="3" priority="8">
       <formula>AND(E$1&gt;=$C4,E$1&lt;=$D4)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E4:AL12 E13:AR18">
+  <conditionalFormatting sqref="E4:AL16 E17:AR26">
     <cfRule type="expression" dxfId="2" priority="7">
       <formula>AND(E$3&gt;=$C4,E$3&lt;=$D4)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AM4:AR12">
+  <conditionalFormatting sqref="AM4:AR16">
     <cfRule type="expression" dxfId="1" priority="6">
       <formula>AND(AM$1&gt;=$C4,AM$1&lt;=$D4)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AM4:AR12">
+  <conditionalFormatting sqref="AM4:AR16">
     <cfRule type="expression" dxfId="0" priority="5">
       <formula>AND(AM$3&gt;=$C4,AM$3&lt;=$D4)</formula>
     </cfRule>
